--- a/ワードウルフ単語_TF.xlsx
+++ b/ワードウルフ単語_TF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>分類</t>
   </si>
@@ -292,6 +292,100 @@
     <t>ここなら、どんな食事がよさそうですか</t>
     <rPh sb="8" eb="10">
       <t>ショクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行中の場面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行最終日の朝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出発の飛行機搭乗時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現地滞在最終日の日没</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お土産買う時間帯</t>
+    <rPh sb="1" eb="3">
+      <t>ミヤゲ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジカンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問例・話題5</t>
+  </si>
+  <si>
+    <t>この場面で一番思うことはなんですか</t>
+    <rPh sb="2" eb="4">
+      <t>バメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の手荷物はどんな状況ですか</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>テニモツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この場面のワクワク度は、旅行中トータルでどのくらいの位置づけですか</t>
+    <rPh sb="2" eb="4">
+      <t>バメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この場面で、手にしているものはなんですか？</t>
+    <rPh sb="2" eb="4">
+      <t>バメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現地滞在最終日の就寝時</t>
+    <rPh sb="8" eb="11">
+      <t>シュウシンジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -350,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -373,11 +467,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -388,6 +510,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -603,22 +729,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q552"/>
+  <dimension ref="A1:R552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.453125" style="4"/>
-    <col min="2" max="13" width="14.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" style="4" customWidth="1"/>
+    <col min="7" max="13" width="14.453125" style="4" customWidth="1"/>
     <col min="14" max="14" width="25.36328125" style="4" customWidth="1"/>
     <col min="15" max="15" width="23.81640625" style="4" customWidth="1"/>
     <col min="16" max="16" width="23.6328125" style="4" customWidth="1"/>
     <col min="17" max="17" width="20.6328125" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="14.453125" style="4"/>
+    <col min="18" max="18" width="18.7265625" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="14.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,8 +804,11 @@
       <c r="Q1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>74</v>
       </c>
@@ -721,8 +858,9 @@
       <c r="Q2" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -768,8 +906,9 @@
       <c r="Q3" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -813,8 +952,9 @@
       <c r="Q4" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -858,8 +998,9 @@
       <c r="Q5" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
@@ -899,113 +1040,159 @@
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1019,7 +1206,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1033,7 +1220,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1047,7 +1234,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1061,7 +1248,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
